--- a/scene_cat_exp_2023.2.2_english/input_files/58_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/58_scenecat_block_order.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>living_rooms_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>kitchens_1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bedrooms_1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bedrooms_2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>living_rooms_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,13 +397,13 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="7">
       <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
